--- a/data/hongfa_3p_map.xlsx
+++ b/data/hongfa_3p_map.xlsx
@@ -856,9 +856,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -900,97 +900,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1001,14 +910,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,8 +931,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,7 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1070,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,43 +1220,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,115 +1232,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1441,13 +1441,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1476,65 +1528,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1546,10 +1546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1558,133 +1558,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2106,8 +2106,8 @@
   <sheetPr/>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data/hongfa_3p_map.xlsx
+++ b/data/hongfa_3p_map.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="273">
   <si>
     <t>address</t>
   </si>
@@ -71,25 +71,28 @@
     <t>断路器保护状态位</t>
   </si>
   <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>见备注 1</t>
+  </si>
+  <si>
+    <t>id3</t>
+  </si>
+  <si>
+    <t>key3</t>
+  </si>
+  <si>
+    <t>0x0001</t>
+  </si>
+  <si>
+    <t>断路器报警标志位</t>
+  </si>
+  <si>
     <t>ushort</t>
-  </si>
-  <si>
-    <t>0x04</t>
-  </si>
-  <si>
-    <t>见备注 1</t>
-  </si>
-  <si>
-    <t>id3</t>
-  </si>
-  <si>
-    <t>key3</t>
-  </si>
-  <si>
-    <t>0x0001</t>
-  </si>
-  <si>
-    <t>断路器报警标志位</t>
   </si>
   <si>
     <t>见备注 2</t>
@@ -863,50 +866,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -915,37 +874,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -966,19 +902,70 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -992,15 +979,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1015,7 +1018,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,7 +1042,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,13 +1108,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1063,7 +1132,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,19 +1162,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,103 +1198,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,26 +1227,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1263,20 +1251,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1296,16 +1281,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1327,10 +1330,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1339,133 +1342,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1824,7 +1827,7 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1972,7 +1975,7 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
@@ -1990,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -1999,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -2010,13 +2013,13 @@
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -2034,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -2043,10 +2046,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -2054,13 +2057,13 @@
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>19</v>
@@ -2078,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
@@ -2087,10 +2090,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -2098,13 +2101,13 @@
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>19</v>
@@ -2122,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -2131,10 +2134,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -2142,13 +2145,13 @@
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -2166,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -2175,10 +2178,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
@@ -2186,13 +2189,13 @@
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
@@ -2210,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
@@ -2219,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -2230,13 +2233,13 @@
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
@@ -2254,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
@@ -2263,10 +2266,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -2274,13 +2277,13 @@
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
@@ -2298,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K11" s="1">
         <v>2</v>
@@ -2310,7 +2313,7 @@
         <v>18004</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
@@ -2318,13 +2321,13 @@
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
@@ -2342,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K12" s="1">
         <v>2</v>
@@ -2354,7 +2357,7 @@
         <v>18005</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -2362,13 +2365,13 @@
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>19</v>
@@ -2386,10 +2389,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K13" s="1">
         <v>2</v>
@@ -2398,7 +2401,7 @@
         <v>18006</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
@@ -2406,13 +2409,13 @@
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>19</v>
@@ -2430,19 +2433,19 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
@@ -2450,7 +2453,7 @@
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
@@ -2494,13 +2497,13 @@
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>19</v>
@@ -2518,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1">
         <v>2</v>
@@ -2530,7 +2533,7 @@
         <v>18007</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N16" s="1">
         <v>1</v>
@@ -2538,13 +2541,13 @@
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
@@ -2562,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K17" s="1">
         <v>2</v>
@@ -2574,7 +2577,7 @@
         <v>18008</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
@@ -2582,13 +2585,13 @@
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>19</v>
@@ -2606,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K18" s="1">
         <v>2</v>
@@ -2618,7 +2621,7 @@
         <v>18009</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
@@ -2626,13 +2629,13 @@
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>19</v>
@@ -2650,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K19" s="1">
         <v>2</v>
@@ -2662,7 +2665,7 @@
         <v>18010</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N19" s="1">
         <v>1</v>
@@ -2670,13 +2673,13 @@
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>19</v>
@@ -2694,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" s="1">
         <v>2</v>
@@ -2706,7 +2709,7 @@
         <v>18001</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
@@ -2714,13 +2717,13 @@
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>19</v>
@@ -2738,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" s="1">
         <v>2</v>
@@ -2750,7 +2753,7 @@
         <v>18002</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
@@ -2758,13 +2761,13 @@
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>19</v>
@@ -2782,10 +2785,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" s="1">
         <v>2</v>
@@ -2794,7 +2797,7 @@
         <v>18003</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
@@ -2802,13 +2805,13 @@
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:14">
       <c r="A23" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>19</v>
@@ -2826,19 +2829,19 @@
         <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" s="1">
         <v>2</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
@@ -2846,13 +2849,13 @@
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:14">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>19</v>
@@ -2870,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K24" s="1">
         <v>2</v>
@@ -2882,7 +2885,7 @@
         <v>18004</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
@@ -2890,13 +2893,13 @@
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:14">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>19</v>
@@ -2914,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K25" s="1">
         <v>2</v>
@@ -2926,7 +2929,7 @@
         <v>18005</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N25" s="1">
         <v>1</v>
@@ -2934,13 +2937,13 @@
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:14">
       <c r="A26" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>19</v>
@@ -2958,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K26" s="1">
         <v>2</v>
@@ -2970,7 +2973,7 @@
         <v>18006</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N26" s="1">
         <v>1</v>
@@ -2978,13 +2981,13 @@
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:14">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>19</v>
@@ -3002,19 +3005,19 @@
         <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" s="1">
         <v>2</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N27" s="1">
         <v>1</v>
@@ -3022,13 +3025,13 @@
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:14">
       <c r="A28" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>19</v>
@@ -3046,10 +3049,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K28" s="1">
         <v>1</v>
@@ -3058,7 +3061,7 @@
         <v>18029</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N28" s="1">
         <v>1</v>
@@ -3066,13 +3069,13 @@
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:14">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>19</v>
@@ -3090,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K29" s="1">
         <v>1</v>
@@ -3102,7 +3105,7 @@
         <v>18030</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N29" s="1">
         <v>1</v>
@@ -3110,13 +3113,13 @@
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:14">
       <c r="A30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
@@ -3134,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K30" s="1">
         <v>1</v>
@@ -3146,7 +3149,7 @@
         <v>18031</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N30" s="1">
         <v>1</v>
@@ -3154,13 +3157,13 @@
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:14">
       <c r="A31" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>19</v>
@@ -3178,10 +3181,10 @@
         <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K31" s="1">
         <v>1</v>
@@ -3190,7 +3193,7 @@
         <v>18028</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N31" s="1">
         <v>1</v>
@@ -3198,13 +3201,13 @@
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:14">
       <c r="A32" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>19</v>
@@ -3222,19 +3225,19 @@
         <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K32" s="1">
         <v>2</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
@@ -3242,13 +3245,13 @@
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:14">
       <c r="A33" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>19</v>
@@ -3266,19 +3269,19 @@
         <v>0</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K33" s="1">
         <v>2</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N33" s="1">
         <v>1</v>
@@ -3286,13 +3289,13 @@
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:14">
       <c r="A34" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>19</v>
@@ -3310,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K34" s="1">
         <v>2</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
@@ -3330,13 +3333,13 @@
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:14">
       <c r="A35" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>19</v>
@@ -3354,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K35" s="1">
         <v>2</v>
@@ -3366,7 +3369,7 @@
         <v>18016</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N35" s="1">
         <v>1</v>
@@ -3374,13 +3377,13 @@
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:14">
       <c r="A36" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>19</v>
@@ -3398,10 +3401,10 @@
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K36" s="1">
         <v>1</v>
@@ -3410,7 +3413,7 @@
         <v>18034</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N36" s="1">
         <v>1</v>
@@ -3418,13 +3421,13 @@
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:14">
       <c r="A37" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>19</v>
@@ -3442,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>15</v>
@@ -3451,10 +3454,10 @@
         <v>1</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N37" s="1">
         <v>1</v>
@@ -3462,13 +3465,13 @@
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:14">
       <c r="A38" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>19</v>
@@ -3486,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>15</v>
@@ -3495,10 +3498,10 @@
         <v>1</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N38" s="1">
         <v>1</v>
@@ -3506,13 +3509,13 @@
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:14">
       <c r="A39" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>19</v>
@@ -3530,19 +3533,19 @@
         <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K39" s="1">
         <v>1</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N39" s="1">
         <v>1</v>
@@ -3550,13 +3553,13 @@
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:14">
       <c r="A40" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>19</v>
@@ -3574,19 +3577,19 @@
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K40" s="1">
         <v>1</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N40" s="1">
         <v>0</v>
@@ -3594,13 +3597,13 @@
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:14">
       <c r="A41" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>19</v>
@@ -3618,19 +3621,19 @@
         <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K41" s="1">
         <v>1</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N41" s="1">
         <v>1</v>
@@ -3638,13 +3641,13 @@
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:14">
       <c r="A42" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>19</v>
@@ -3662,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>15</v>
@@ -3671,10 +3674,10 @@
         <v>1</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N42" s="1">
         <v>1</v>
@@ -3682,13 +3685,13 @@
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:14">
       <c r="A43" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>19</v>
@@ -3706,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>15</v>
@@ -3715,10 +3718,10 @@
         <v>1</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N43" s="1">
         <v>1</v>
@@ -3726,13 +3729,13 @@
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:14">
       <c r="A44" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>19</v>
@@ -3759,10 +3762,10 @@
         <v>4</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
@@ -3770,13 +3773,13 @@
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:14">
       <c r="A45" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>19</v>
@@ -3794,19 +3797,19 @@
         <v>0</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K45" s="1">
         <v>2</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N45" s="1">
         <v>0</v>
@@ -3814,7 +3817,7 @@
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:14">
       <c r="A46" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>15</v>
@@ -3858,13 +3861,13 @@
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:14">
       <c r="A47" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>19</v>
@@ -3882,19 +3885,19 @@
         <v>0</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K47" s="1">
         <v>1</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N47" s="1">
         <v>1</v>
@@ -3902,13 +3905,13 @@
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:14">
       <c r="A48" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>19</v>
@@ -3926,19 +3929,19 @@
         <v>0</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K48" s="1">
         <v>1</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N48" s="1">
         <v>1</v>
@@ -3946,13 +3949,13 @@
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:14">
       <c r="A49" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>19</v>
@@ -3970,19 +3973,19 @@
         <v>0</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N49" s="1">
         <v>1</v>
@@ -3990,13 +3993,13 @@
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:14">
       <c r="A50" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>19</v>
@@ -4014,19 +4017,19 @@
         <v>0</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N50" s="1">
         <v>1</v>
@@ -4034,13 +4037,13 @@
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:14">
       <c r="A51" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>19</v>
@@ -4058,19 +4061,19 @@
         <v>0</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K51" s="1">
         <v>1</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N51" s="1">
         <v>1</v>
@@ -4078,13 +4081,13 @@
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:14">
       <c r="A52" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>19</v>
@@ -4102,19 +4105,19 @@
         <v>0</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K52" s="1">
         <v>1</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N52" s="1">
         <v>1</v>
@@ -4122,13 +4125,13 @@
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:14">
       <c r="A53" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>19</v>
@@ -4146,19 +4149,19 @@
         <v>0</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K53" s="1">
         <v>1</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N53" s="1">
         <v>1</v>
@@ -4166,13 +4169,13 @@
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:14">
       <c r="A54" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>19</v>
@@ -4190,19 +4193,19 @@
         <v>0</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K54" s="1">
         <v>1</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N54" s="1">
         <v>1</v>
@@ -4210,13 +4213,13 @@
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:14">
       <c r="A55" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>19</v>
@@ -4234,19 +4237,19 @@
         <v>0</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K55" s="1">
         <v>1</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N55" s="1">
         <v>1</v>
@@ -4254,13 +4257,13 @@
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:14">
       <c r="A56" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>19</v>
@@ -4278,19 +4281,19 @@
         <v>0</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K56" s="1">
         <v>1</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N56" s="1">
         <v>1</v>
@@ -4298,13 +4301,13 @@
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:14">
       <c r="A57" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>19</v>
@@ -4322,19 +4325,19 @@
         <v>0</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K57" s="1">
         <v>1</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N57" s="1">
         <v>1</v>
@@ -4342,10 +4345,10 @@
     </row>
     <row r="58" ht="20" customHeight="1" spans="1:14">
       <c r="A58" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>15</v>
@@ -4375,10 +4378,10 @@
         <v>1</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N58" s="1">
         <v>0</v>
@@ -4386,10 +4389,10 @@
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:14">
       <c r="A59" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>15</v>
@@ -4419,10 +4422,10 @@
         <v>1</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N59" s="1">
         <v>0</v>
@@ -4430,10 +4433,10 @@
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:14">
       <c r="A60" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>15</v>
@@ -4463,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N60" s="1">
         <v>0</v>
@@ -4474,10 +4477,10 @@
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:14">
       <c r="A61" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>15</v>
@@ -4507,10 +4510,10 @@
         <v>1</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N61" s="1">
         <v>0</v>
@@ -4518,10 +4521,10 @@
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:14">
       <c r="A62" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>15</v>
@@ -4551,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N62" s="1">
         <v>0</v>
@@ -4562,10 +4565,10 @@
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:14">
       <c r="A63" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>15</v>
@@ -4595,10 +4598,10 @@
         <v>1</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N63" s="1">
         <v>0</v>
@@ -4606,10 +4609,10 @@
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:14">
       <c r="A64" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>15</v>
@@ -4639,10 +4642,10 @@
         <v>1</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N64" s="1">
         <v>0</v>
@@ -4650,10 +4653,10 @@
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:14">
       <c r="A65" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>15</v>
@@ -4683,10 +4686,10 @@
         <v>1</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N65" s="1">
         <v>0</v>
@@ -4694,10 +4697,10 @@
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:14">
       <c r="A66" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>15</v>
@@ -4727,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N66" s="1">
         <v>0</v>
@@ -4738,10 +4741,10 @@
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:14">
       <c r="A67" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>15</v>
@@ -4771,10 +4774,10 @@
         <v>1</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N67" s="1">
         <v>0</v>
@@ -4782,10 +4785,10 @@
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:14">
       <c r="A68" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>15</v>
@@ -4815,10 +4818,10 @@
         <v>1</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N68" s="1">
         <v>0</v>
@@ -4826,10 +4829,10 @@
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:14">
       <c r="A69" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>15</v>
@@ -4859,10 +4862,10 @@
         <v>1</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N69" s="1">
         <v>0</v>
@@ -4870,10 +4873,10 @@
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:14">
       <c r="A70" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>15</v>
@@ -4903,10 +4906,10 @@
         <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N70" s="1">
         <v>0</v>
